--- a/equity/Barra_MFM.xlsx
+++ b/equity/Barra_MFM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="因子" sheetId="1" r:id="rId1"/>
@@ -711,7 +711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1001,15 +1001,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
